--- a/study3/presentation_for_paper/study3_result_analysis_by_section_ttest.xlsx
+++ b/study3/presentation_for_paper/study3_result_analysis_by_section_ttest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study3/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5245ADF4-4E6B-4F67-8469-4F1B064FBBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{5245ADF4-4E6B-4F67-8469-4F1B064FBBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B509746-81B8-4AEE-A1FA-D9155348AD4A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{CB60ED0B-9307-4A5B-ABF2-DEDA573CA58C}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,25 +139,26 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -166,264 +167,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -432,123 +201,69 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -581,22 +296,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F56F26-820B-DB75-68BB-68BEC6351E70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E0E918-B28F-3B1D-B756-5C613C0073E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -619,8 +334,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="241300" y="114300"/>
-          <a:ext cx="8940800" cy="2082800"/>
+          <a:off x="609600" y="342900"/>
+          <a:ext cx="7708900" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -959,303 +674,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2A399-962F-4A09-AD4F-C283C5B10251}">
-  <dimension ref="B1:J10"/>
+  <dimension ref="C2:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="B2:J10"/>
+      <selection activeCell="L2" sqref="B2:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="10" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="0.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.9140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="0.5" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" style="1"/>
+    <col min="15" max="15" width="21.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.5" thickBot="1"/>
-    <row r="2" spans="2:10" ht="18.5" thickBot="1">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="3:11" ht="3" customHeight="1"/>
+    <row r="3" spans="3:11" ht="22" customHeight="1">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="3:11">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19">
+      <c r="E4" s="11">
         <v>32</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F4" s="11">
         <v>-5.12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I4" s="11">
         <v>-0.87</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J4" s="12">
         <v>0.3921</v>
       </c>
-      <c r="J3" s="14">
+      <c r="K4" s="11">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="6"/>
-      <c r="C4" s="27" t="s">
+    <row r="5" spans="3:11">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20">
+      <c r="E5" s="4">
         <v>27</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="4">
         <v>-2.59</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I5" s="4">
         <v>-0.45</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J5" s="5">
         <v>0.65300000000000002</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K5" s="4">
         <v>-0.09</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="6"/>
-      <c r="C5" s="27" t="s">
+    <row r="6" spans="3:11">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="E6" s="4">
         <v>26</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="4">
         <v>-7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I6" s="4">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J6" s="5">
         <v>0.28260000000000002</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K6" s="4">
         <v>-0.22</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="18.5" thickBot="1">
-      <c r="B6" s="7"/>
-      <c r="C6" s="28" t="s">
+    <row r="7" spans="3:11">
+      <c r="C7" s="13"/>
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="21">
+      <c r="E7" s="14">
         <v>26</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F7" s="14">
         <v>8.19</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I7" s="14">
         <v>1.6</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J7" s="15">
         <v>0.1225</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K7" s="14">
         <v>0.32</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="23" t="s">
+    <row r="8" spans="3:11">
+      <c r="C8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="D8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="22">
+      <c r="E8" s="11">
         <v>16</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F8" s="11">
         <v>-16.88</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I8" s="11">
         <v>-2.12</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J8" s="17">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K8" s="11">
         <v>-0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="24"/>
-      <c r="C8" s="27" t="s">
+    <row r="9" spans="3:11">
+      <c r="C9" s="6"/>
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="20">
+      <c r="E9" s="4">
         <v>23</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="4">
         <v>-4.3899999999999997</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I9" s="4">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J9" s="5">
         <v>0.56820000000000004</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K9" s="4">
         <v>-0.12</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="24"/>
-      <c r="C9" s="27" t="s">
+    <row r="10" spans="3:11">
+      <c r="C10" s="6"/>
+      <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="20">
+      <c r="E10" s="4">
         <v>20</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="4">
         <v>-3.1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I10" s="4">
         <v>-0.4</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J10" s="5">
         <v>0.69379999999999997</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K10" s="4">
         <v>-0.09</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="18.5" thickBot="1">
-      <c r="B10" s="25"/>
-      <c r="C10" s="28" t="s">
+    <row r="11" spans="3:11">
+      <c r="C11" s="18"/>
+      <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="21">
+      <c r="E11" s="14">
         <v>21</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F11" s="14">
         <v>9.19</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I11" s="14">
         <v>1.38</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J11" s="15">
         <v>0.18390000000000001</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K11" s="14">
         <v>0.31</v>
       </c>
     </row>
+    <row r="12" spans="3:11" ht="3.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I4:I5 I8:I9">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
-      <formula>0.051</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>0.051</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>0.051</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0.051</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0.051</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1265,7 +965,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/study3/presentation_for_paper/study3_result_analysis_by_section_ttest.xlsx
+++ b/study3/presentation_for_paper/study3_result_analysis_by_section_ttest.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study3/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{5245ADF4-4E6B-4F67-8469-4F1B064FBBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B509746-81B8-4AEE-A1FA-D9155348AD4A}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{5245ADF4-4E6B-4F67-8469-4F1B064FBBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A37B015-58A0-404C-9CF7-F72A5D932207}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{CB60ED0B-9307-4A5B-ABF2-DEDA573CA58C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{CB60ED0B-9307-4A5B-ABF2-DEDA573CA58C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="original" sheetId="1" r:id="rId1"/>
+    <sheet name="stmd" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>Section</t>
   </si>
@@ -158,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -195,90 +196,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -354,7 +413,72 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D4BDBC-141F-CF1A-ECFA-3FB063B3AA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="641350" y="2286000"/>
+          <a:ext cx="7835900" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,7 +801,7 @@
   <dimension ref="C2:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="B2:L12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -701,251 +825,251 @@
   <sheetData>
     <row r="2" spans="3:11" ht="3" customHeight="1"/>
     <row r="3" spans="3:11" ht="22" customHeight="1">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="3:11">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <v>32</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="7">
         <v>-5.12</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="7">
         <v>-0.87</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <v>0.3921</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="7">
         <v>-0.16</v>
       </c>
     </row>
     <row r="5" spans="3:11">
-      <c r="C5" s="3"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>27</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>-2.59</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>-0.45</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.65300000000000002</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>-0.09</v>
       </c>
     </row>
     <row r="6" spans="3:11">
-      <c r="C6" s="3"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>26</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>-7</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.28260000000000002</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>-0.22</v>
       </c>
     </row>
     <row r="7" spans="3:11">
-      <c r="C7" s="13"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>26</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>8.19</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="10">
         <v>1.6</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="11">
         <v>0.1225</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="10">
         <v>0.32</v>
       </c>
     </row>
     <row r="8" spans="3:11">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>16</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <v>-16.88</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="7">
         <v>-2.12</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="12">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="7">
         <v>-0.55000000000000004</v>
       </c>
     </row>
     <row r="9" spans="3:11">
-      <c r="C9" s="6"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>23</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>-4.3899999999999997</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>0.56820000000000004</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>-0.12</v>
       </c>
     </row>
     <row r="10" spans="3:11">
-      <c r="C10" s="6"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>-3.1</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>-0.4</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>0.69379999999999997</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>-0.09</v>
       </c>
     </row>
     <row r="11" spans="3:11">
-      <c r="C11" s="18"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="10">
         <v>21</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>9.19</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="10">
         <v>1.38</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="11">
         <v>0.18390000000000001</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="10">
         <v>0.31</v>
       </c>
     </row>
@@ -961,11 +1085,319 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC12143F-DFC8-44D1-BF0F-4E1A0E7B247F}">
+  <dimension ref="B2:K13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L2" sqref="B2:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="0.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.9140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="0.5" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" style="1"/>
+    <col min="15" max="15" width="21.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="3" customHeight="1"/>
+    <row r="3" spans="2:11" ht="22" customHeight="1">
+      <c r="C3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="27"/>
+      <c r="C4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-5.12</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>-0.87</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.3921</v>
+      </c>
+      <c r="K4" s="7">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="31">
+        <v>27</v>
+      </c>
+      <c r="F5" s="23">
+        <v>-2.59</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="23">
+        <v>-0.45</v>
+      </c>
+      <c r="J5" s="24">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="K5" s="23">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="31">
+        <v>26</v>
+      </c>
+      <c r="F6" s="23">
+        <v>-7</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="23">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="K6" s="23">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="31">
+        <v>26</v>
+      </c>
+      <c r="F7" s="23">
+        <v>8.19</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0.1225</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="6" customHeight="1">
+      <c r="B8" s="20"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="20"/>
+      <c r="C9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="31">
+        <v>16</v>
+      </c>
+      <c r="F9" s="23">
+        <v>-16.88</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="23">
+        <v>-2.12</v>
+      </c>
+      <c r="J9" s="26">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="K9" s="23">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="20"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="31">
+        <v>23</v>
+      </c>
+      <c r="F10" s="23">
+        <v>-4.3899999999999997</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="23">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="K10" s="23">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="20"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="31">
+        <v>20</v>
+      </c>
+      <c r="F11" s="23">
+        <v>-3.1</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="23">
+        <v>-0.4</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0.69379999999999997</v>
+      </c>
+      <c r="K11" s="23">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="28"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="32">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10">
+        <v>9.19</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1.38</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="3.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C9:C12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8ECBC6D-7F40-4C5D-8775-0721CD19E3BF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
